--- a/pythia_ig/output/StructureDefinition-antigen-supporting-data.xlsx
+++ b/pythia_ig/output/StructureDefinition-antigen-supporting-data.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhirfli.dev/fhir/ig/cdsi/StructureDefinition/antigen-supporting-data</t>
+    <t>http://fhirfli.dev/fhir/ig/pythia/StructureDefinition/antigen-supporting-data</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-18T10:38:20+02:00</t>
+    <t>2024-04-29T11:15:56-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/pythia_ig/output/StructureDefinition-antigen-supporting-data.xlsx
+++ b/pythia_ig/output/StructureDefinition-antigen-supporting-data.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T11:15:56-04:00</t>
+    <t>2024-04-30T11:57:33-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/pythia_ig/output/StructureDefinition-antigen-supporting-data.xlsx
+++ b/pythia_ig/output/StructureDefinition-antigen-supporting-data.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T11:57:33-04:00</t>
+    <t>2024-04-30T13:37:40-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/pythia_ig/output/StructureDefinition-antigen-supporting-data.xlsx
+++ b/pythia_ig/output/StructureDefinition-antigen-supporting-data.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T13:37:40-04:00</t>
+    <t>2024-04-30T19:45:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/pythia_ig/output/StructureDefinition-antigen-supporting-data.xlsx
+++ b/pythia_ig/output/StructureDefinition-antigen-supporting-data.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T19:45:10-04:00</t>
+    <t>2024-04-30T22:06:35-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/pythia_ig/output/StructureDefinition-antigen-supporting-data.xlsx
+++ b/pythia_ig/output/StructureDefinition-antigen-supporting-data.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T22:06:35-04:00</t>
+    <t>2024-05-01T10:29:48-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/pythia_ig/output/StructureDefinition-antigen-supporting-data.xlsx
+++ b/pythia_ig/output/StructureDefinition-antigen-supporting-data.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-01T10:29:48-04:00</t>
+    <t>2024-05-06T15:25:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
